--- a/BackTest/2019-10-30 BackTest ADA.xlsx
+++ b/BackTest/2019-10-30 BackTest ADA.xlsx
@@ -1256,20 +1256,14 @@
         <v>49.68500000000005</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1303,14 +1297,12 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>49.4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1344,12 +1336,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>49.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>49.4</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1385,12 +1379,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+        <v>49.6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>49.4</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1426,14 +1422,12 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>49.6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1467,12 +1461,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+        <v>49.7</v>
+      </c>
+      <c r="K30" t="n">
+        <v>49.6</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -1502,16 +1498,20 @@
         <v>49.65000000000006</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="K31" t="n">
+        <v>49.6</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -1548,11 +1548,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1587,11 +1583,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1626,11 +1618,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1665,11 +1653,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1704,11 +1688,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1743,11 +1723,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1782,11 +1758,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1821,11 +1793,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1860,11 +1828,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1899,11 +1863,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1938,11 +1898,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1970,20 +1926,14 @@
         <v>49.68000000000006</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2011,20 +1961,14 @@
         <v>49.68500000000007</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2052,20 +1996,14 @@
         <v>49.69000000000006</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>49.7</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2093,20 +2031,14 @@
         <v>49.69500000000006</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>49.7</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2134,20 +2066,14 @@
         <v>49.70500000000006</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>49.8</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2182,11 +2108,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2221,11 +2143,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2260,11 +2178,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2213,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2338,11 +2248,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2377,11 +2283,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2409,20 +2311,14 @@
         <v>49.64500000000006</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2450,20 +2346,14 @@
         <v>49.63500000000006</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2491,20 +2381,14 @@
         <v>49.61500000000007</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>49.4</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2532,20 +2416,14 @@
         <v>49.59500000000007</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>49.4</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2573,20 +2451,14 @@
         <v>49.58000000000008</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>49.4</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2614,20 +2486,14 @@
         <v>49.58000000000008</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2655,20 +2521,14 @@
         <v>49.58500000000007</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2696,20 +2556,14 @@
         <v>49.59000000000007</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2737,20 +2591,14 @@
         <v>49.59500000000006</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2778,20 +2626,14 @@
         <v>49.60000000000006</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2819,20 +2661,14 @@
         <v>49.60500000000005</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2860,20 +2696,14 @@
         <v>49.60000000000004</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2901,20 +2731,14 @@
         <v>49.59500000000004</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2942,20 +2766,14 @@
         <v>49.58500000000004</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2983,20 +2801,14 @@
         <v>49.58500000000004</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>49.8</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3024,20 +2836,14 @@
         <v>49.58500000000004</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>49.8</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3065,20 +2871,14 @@
         <v>49.59500000000003</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>49.8</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3106,20 +2906,14 @@
         <v>49.60500000000003</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>49.8</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3147,20 +2941,14 @@
         <v>49.61500000000004</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>49.8</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3195,11 +2983,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3234,11 +3018,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3273,11 +3053,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3312,11 +3088,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3351,11 +3123,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3390,11 +3158,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3429,11 +3193,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3468,11 +3228,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3507,11 +3263,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3546,11 +3298,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3585,11 +3333,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3624,11 +3368,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3663,11 +3403,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3702,11 +3438,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3741,11 +3473,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3780,11 +3508,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3819,11 +3543,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3858,11 +3578,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3897,11 +3613,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3936,11 +3648,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3975,11 +3683,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4007,20 +3711,14 @@
         <v>49.77000000000002</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4048,20 +3746,14 @@
         <v>49.75000000000001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4089,20 +3781,14 @@
         <v>49.73000000000003</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4130,20 +3816,14 @@
         <v>49.71000000000002</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4171,20 +3851,14 @@
         <v>49.69500000000001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4212,20 +3886,14 @@
         <v>49.66500000000002</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>49.4</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4253,20 +3921,14 @@
         <v>49.65500000000002</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4294,20 +3956,14 @@
         <v>49.64000000000001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4335,20 +3991,14 @@
         <v>49.62000000000001</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4376,20 +4026,14 @@
         <v>49.60500000000001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4417,20 +4061,14 @@
         <v>49.58000000000002</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4458,20 +4096,14 @@
         <v>49.57000000000001</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4499,20 +4131,14 @@
         <v>49.56000000000002</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4540,20 +4166,14 @@
         <v>49.55500000000001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4581,20 +4201,14 @@
         <v>49.55</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4622,20 +4236,14 @@
         <v>49.55</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4663,20 +4271,14 @@
         <v>49.555</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>49.7</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4704,20 +4306,14 @@
         <v>49.555</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4745,20 +4341,14 @@
         <v>49.56</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>49.7</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4786,20 +4376,14 @@
         <v>49.56</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4827,20 +4411,14 @@
         <v>49.56999999999999</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>49.7</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4868,20 +4446,14 @@
         <v>49.58499999999999</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>49.8</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4909,20 +4481,14 @@
         <v>49.59499999999999</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>49.7</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4957,11 +4523,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4989,20 +4551,14 @@
         <v>49.605</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5030,20 +4586,14 @@
         <v>49.61</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5071,20 +4621,14 @@
         <v>49.60499999999999</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5112,20 +4656,14 @@
         <v>49.59999999999999</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5153,20 +4691,14 @@
         <v>49.6</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5194,20 +4726,14 @@
         <v>49.59999999999999</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5235,20 +4761,14 @@
         <v>49.6</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5276,20 +4796,14 @@
         <v>49.595</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5317,20 +4831,14 @@
         <v>49.58499999999999</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>49.4</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5358,20 +4866,14 @@
         <v>49.575</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>49.4</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5399,20 +4901,14 @@
         <v>49.575</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5440,20 +4936,14 @@
         <v>49.57</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5481,20 +4971,14 @@
         <v>49.55499999999999</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>49.4</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5522,20 +5006,14 @@
         <v>49.55</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5563,20 +5041,14 @@
         <v>49.54</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5604,20 +5076,14 @@
         <v>49.53999999999999</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5645,20 +5111,14 @@
         <v>49.53999999999998</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>49.7</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5686,20 +5146,14 @@
         <v>49.52999999999999</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5727,20 +5181,14 @@
         <v>49.52499999999998</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5768,20 +5216,14 @@
         <v>49.51499999999997</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5809,20 +5251,14 @@
         <v>49.51499999999997</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5850,20 +5286,14 @@
         <v>49.51999999999997</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5891,20 +5321,14 @@
         <v>49.51999999999997</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5932,20 +5356,14 @@
         <v>49.51999999999997</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5973,20 +5391,14 @@
         <v>49.51999999999997</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6014,20 +5426,14 @@
         <v>49.51499999999997</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>49.5</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6055,20 +5461,14 @@
         <v>49.51999999999997</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>49.6</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6096,20 +5496,14 @@
         <v>49.52999999999997</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>49.7</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6137,20 +5531,14 @@
         <v>49.54499999999997</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>49.7</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6178,20 +5566,14 @@
         <v>49.55999999999997</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>49.7</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6219,20 +5601,14 @@
         <v>49.57499999999997</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>49.8</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6260,20 +5636,14 @@
         <v>49.58999999999997</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>49.8</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6301,20 +5671,14 @@
         <v>49.60999999999997</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>49.8</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6342,20 +5706,14 @@
         <v>49.62499999999998</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>49.8</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6383,20 +5741,14 @@
         <v>49.64499999999998</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>49.9</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6431,11 +5783,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6470,11 +5818,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6509,11 +5853,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6548,11 +5888,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6587,11 +5923,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6626,11 +5958,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6665,11 +5993,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6704,11 +6028,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6743,11 +6063,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6782,11 +6098,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6821,11 +6133,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6860,11 +6168,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6899,11 +6203,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6938,11 +6238,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6977,11 +6273,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7016,11 +6308,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7055,11 +6343,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7094,11 +6378,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7133,11 +6413,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7172,11 +6448,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7211,11 +6483,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7250,11 +6518,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7289,11 +6553,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7328,11 +6588,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7367,11 +6623,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7406,11 +6658,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7445,11 +6693,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7484,11 +6728,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7523,11 +6763,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7562,11 +6798,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7601,11 +6833,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7640,11 +6868,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7679,11 +6903,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7718,11 +6938,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7757,11 +6973,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7796,11 +7008,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7835,11 +7043,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7874,11 +7078,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7913,11 +7113,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7952,11 +7148,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7991,11 +7183,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8030,11 +7218,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8069,11 +7253,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8108,11 +7288,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8147,11 +7323,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8186,11 +7358,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8225,11 +7393,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8264,11 +7428,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8303,11 +7463,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8342,11 +7498,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8381,11 +7533,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8420,11 +7568,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8459,11 +7603,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8498,11 +7638,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8537,11 +7673,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8576,11 +7708,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8615,11 +7743,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8654,11 +7778,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8693,11 +7813,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8732,11 +7848,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8771,11 +7883,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8810,11 +7918,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8849,11 +7953,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8888,11 +7988,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8927,11 +8023,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8966,11 +8058,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9005,11 +8093,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9044,11 +8128,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9083,11 +8163,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9118,16 +8194,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9155,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
@@ -9190,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
@@ -11182,13 +10256,17 @@
         <v>49.54999999999997</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="K281" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
@@ -11217,14 +10295,22 @@
         <v>49.52999999999996</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="K282" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11252,14 +10338,22 @@
         <v>49.52999999999996</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="K283" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11287,14 +10381,22 @@
         <v>49.53499999999996</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="K284" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11328,8 +10430,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11363,8 +10471,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11398,8 +10512,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11433,8 +10553,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11468,8 +10594,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11503,8 +10635,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11538,8 +10676,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11573,8 +10717,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11608,8 +10758,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11643,8 +10799,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11678,8 +10840,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11713,8 +10881,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11748,8 +10922,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11783,8 +10963,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11818,8 +11004,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11853,8 +11045,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11888,8 +11086,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11923,8 +11127,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11958,8 +11168,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11993,8 +11209,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12028,8 +11250,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12063,8 +11291,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12098,8 +11332,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12133,8 +11373,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12168,8 +11414,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12203,8 +11455,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12238,8 +11496,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12273,8 +11537,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12308,8 +11578,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12343,8 +11619,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12378,8 +11660,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12413,8 +11701,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12448,8 +11742,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12483,8 +11783,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12518,8 +11824,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12553,8 +11865,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12588,8 +11906,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12623,8 +11947,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12658,8 +11988,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12693,8 +12029,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12728,8 +12070,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12763,8 +12111,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12798,8 +12152,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12833,8 +12193,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12868,8 +12234,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12903,8 +12275,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12938,8 +12316,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12973,8 +12357,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13008,8 +12398,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13043,8 +12439,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13078,8 +12480,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13113,8 +12521,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13148,8 +12562,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13183,8 +12603,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13218,8 +12644,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13253,8 +12685,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13288,8 +12726,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13323,8 +12767,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13358,8 +12808,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13393,8 +12849,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13428,8 +12890,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13463,8 +12931,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13498,8 +12972,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13533,8 +13013,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13568,8 +13054,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13603,8 +13095,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13638,8 +13136,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13673,8 +13177,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13708,8 +13218,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13743,8 +13259,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13778,8 +13300,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13813,8 +13341,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13848,8 +13382,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13883,8 +13423,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13918,8 +13464,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13953,8 +13505,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13988,8 +13546,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14023,8 +13587,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14058,8 +13628,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14093,8 +13669,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14128,8 +13710,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14163,8 +13751,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14198,8 +13792,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14233,8 +13833,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14268,8 +13874,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14303,8 +13915,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14338,8 +13956,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14373,8 +13997,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14408,8 +14038,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14443,8 +14079,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14478,8 +14120,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14513,8 +14161,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14548,8 +14202,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14583,8 +14243,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14618,8 +14284,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14653,8 +14325,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14688,8 +14366,14 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14723,8 +14407,14 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14758,8 +14448,14 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14793,8 +14489,14 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14828,8 +14530,14 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14863,8 +14571,14 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14898,8 +14612,14 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14933,8 +14653,14 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14968,8 +14694,14 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15003,8 +14735,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15038,8 +14776,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15073,8 +14817,14 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15108,8 +14858,14 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15143,8 +14899,14 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15178,8 +14940,14 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15213,8 +14981,14 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15248,8 +15022,14 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15283,8 +15063,14 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15318,8 +15104,14 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15353,8 +15145,14 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15388,8 +15186,14 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15423,8 +15227,14 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15458,8 +15268,14 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15493,8 +15309,14 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15528,8 +15350,14 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15563,8 +15391,14 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15598,8 +15432,14 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15633,8 +15473,14 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15668,8 +15514,14 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15703,8 +15555,14 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15738,8 +15596,14 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15773,8 +15637,14 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15808,8 +15678,14 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15843,8 +15719,14 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15878,8 +15760,14 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15913,8 +15801,14 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15948,8 +15842,14 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15983,8 +15883,14 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16018,8 +15924,14 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16053,8 +15965,14 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16088,8 +16006,14 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16123,8 +16047,14 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16158,8 +16088,14 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16193,8 +16129,14 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16228,8 +16170,14 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16263,8 +16211,14 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16298,8 +16252,14 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16333,8 +16293,14 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16368,8 +16334,14 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16403,8 +16375,14 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16438,8 +16416,14 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16473,8 +16457,14 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16508,8 +16498,14 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16543,8 +16539,14 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16578,8 +16580,14 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16607,18 +16615,18 @@
         <v>49.64500000000004</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M436" t="n">
@@ -16648,15 +16656,15 @@
         <v>49.62000000000004</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16689,15 +16697,15 @@
         <v>49.59500000000004</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16730,15 +16738,15 @@
         <v>49.57000000000004</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16771,15 +16779,15 @@
         <v>49.54500000000004</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16812,15 +16820,15 @@
         <v>49.53500000000005</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16861,7 +16869,9 @@
       <c r="J442" t="n">
         <v>49.5</v>
       </c>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16900,9 +16910,11 @@
         <v>0</v>
       </c>
       <c r="J443" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K443" t="inlineStr"/>
+        <v>49.6</v>
+      </c>
+      <c r="K443" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16943,7 +16955,9 @@
       <c r="J444" t="n">
         <v>49.4</v>
       </c>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16982,9 +16996,11 @@
         <v>0</v>
       </c>
       <c r="J445" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="K445" t="inlineStr"/>
+        <v>49.4</v>
+      </c>
+      <c r="K445" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17023,9 +17039,11 @@
         <v>0</v>
       </c>
       <c r="J446" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K446" t="inlineStr"/>
+        <v>49.5</v>
+      </c>
+      <c r="K446" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17064,9 +17082,11 @@
         <v>0</v>
       </c>
       <c r="J447" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K447" t="inlineStr"/>
+        <v>49.5</v>
+      </c>
+      <c r="K447" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17099,15 +17119,15 @@
         <v>49.46500000000003</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17140,15 +17160,15 @@
         <v>49.47000000000003</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17181,15 +17201,15 @@
         <v>49.48500000000003</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="n">
-        <v>50</v>
-      </c>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17222,15 +17242,15 @@
         <v>49.48000000000003</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17269,7 +17289,9 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17308,7 +17330,9 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17347,7 +17371,9 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17386,7 +17412,9 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17425,7 +17453,9 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17464,7 +17494,9 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17503,7 +17535,9 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17542,7 +17576,9 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17581,7 +17617,9 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17620,7 +17658,9 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17659,7 +17699,9 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17698,7 +17740,9 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17737,7 +17781,9 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17776,7 +17822,9 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17815,7 +17863,9 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17854,7 +17904,9 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17893,7 +17945,9 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17932,7 +17986,9 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17971,7 +18027,9 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18010,7 +18068,9 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18049,7 +18109,9 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18088,7 +18150,9 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18127,7 +18191,9 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18166,7 +18232,9 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18205,7 +18273,9 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18244,7 +18314,9 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18283,7 +18355,9 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18322,7 +18396,9 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18361,7 +18437,9 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18400,7 +18478,9 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18439,7 +18519,9 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18478,7 +18560,9 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18517,7 +18601,9 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18556,7 +18642,9 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18595,7 +18683,9 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18634,7 +18724,9 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18673,7 +18765,9 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18712,7 +18806,9 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18751,7 +18847,9 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18790,7 +18888,9 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18829,7 +18929,9 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18868,7 +18970,9 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18907,7 +19011,9 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18946,7 +19052,9 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18985,7 +19093,9 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19024,7 +19134,9 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19063,7 +19175,9 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19102,7 +19216,9 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19141,7 +19257,9 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19180,7 +19298,9 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19219,7 +19339,9 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19258,7 +19380,9 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19297,7 +19421,9 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19336,7 +19462,9 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19375,7 +19503,9 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19414,7 +19544,9 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19453,7 +19585,9 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19492,7 +19626,9 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19531,7 +19667,9 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19570,7 +19708,9 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19609,7 +19749,9 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19648,7 +19790,9 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19687,7 +19831,9 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19726,7 +19872,9 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19765,7 +19913,9 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19804,7 +19954,9 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19843,7 +19995,9 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19882,7 +20036,9 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19921,7 +20077,9 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19960,7 +20118,9 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19999,7 +20159,9 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20038,7 +20200,9 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20077,7 +20241,9 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20116,7 +20282,9 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20155,7 +20323,9 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20194,7 +20364,9 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20233,7 +20405,9 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20272,7 +20446,9 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20311,7 +20487,9 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20350,7 +20528,9 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20389,7 +20569,9 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20428,7 +20610,9 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20467,7 +20651,9 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20506,7 +20692,9 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20545,7 +20733,9 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20584,7 +20774,9 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20623,7 +20815,9 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20662,7 +20856,9 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20701,7 +20897,9 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20740,7 +20938,9 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20779,7 +20979,9 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20818,7 +21020,9 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20857,7 +21061,9 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20896,7 +21102,9 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20935,7 +21143,9 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20974,7 +21184,9 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21013,7 +21225,9 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21052,7 +21266,9 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21091,7 +21307,9 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21130,7 +21348,9 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21169,7 +21389,9 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21208,7 +21430,9 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21247,7 +21471,9 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21286,7 +21512,9 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21325,7 +21553,9 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21364,7 +21594,9 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21403,7 +21635,9 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21442,7 +21676,9 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21481,7 +21717,9 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21520,7 +21758,9 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21556,17 +21796,19 @@
         <v>0</v>
       </c>
       <c r="I562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>49.5</v>
+      </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M562" t="n">
-        <v>1</v>
+        <v>1.02530303030303</v>
       </c>
     </row>
     <row r="563">
@@ -21595,15 +21837,11 @@
         <v>0</v>
       </c>
       <c r="I563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L563" t="inlineStr"/>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21638,11 +21876,7 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L564" t="inlineStr"/>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21677,11 +21911,7 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L565" t="inlineStr"/>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21716,11 +21946,7 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L566" t="inlineStr"/>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21755,11 +21981,7 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L567" t="inlineStr"/>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21794,11 +22016,7 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L568" t="inlineStr"/>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21833,11 +22051,7 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L569" t="inlineStr"/>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21872,11 +22086,7 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L570" t="inlineStr"/>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21911,11 +22121,7 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L571" t="inlineStr"/>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21950,11 +22156,7 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L572" t="inlineStr"/>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21989,11 +22191,7 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L573" t="inlineStr"/>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -22028,11 +22226,7 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L574" t="inlineStr"/>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -22067,11 +22261,7 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L575" t="inlineStr"/>
       <c r="M575" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-30 BackTest ADA.xlsx
+++ b/BackTest/2019-10-30 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-276841.387</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-276841.387</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>49.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-279975.4793</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-250314.0434</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -606,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -642,19 +616,11 @@
         <v>-241852.0619</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -686,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -725,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -764,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +748,11 @@
         <v>-242791.5619</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,19 +781,11 @@
         <v>-242791.5619</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -885,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -924,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -960,19 +880,11 @@
         <v>-281750.60818503</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1001,19 +913,11 @@
         <v>-256034.6428</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1042,19 +946,11 @@
         <v>-244430.0851</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1083,19 +979,11 @@
         <v>-211282.7439</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1124,19 +1012,11 @@
         <v>-259762.9982</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1168,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1207,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1246,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1285,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1324,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1360,19 +1210,11 @@
         <v>-155253.3754</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>50</v>
-      </c>
-      <c r="J25" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1404,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1440,19 +1276,11 @@
         <v>-157870.4931</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1484,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1520,19 +1342,11 @@
         <v>-73422.29320000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1561,19 +1375,11 @@
         <v>-57758.76510000002</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1605,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1644,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1683,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1722,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1761,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1800,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1839,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1878,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1917,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1956,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1995,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2034,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2070,19 +1804,11 @@
         <v>14056.20174341998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2114,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2153,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2192,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2231,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2270,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2309,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2348,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2387,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2426,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2465,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2504,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2543,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2582,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2621,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2660,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2699,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2738,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2777,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2816,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2855,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2894,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2933,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2972,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3011,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3050,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3089,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3128,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3167,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3206,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3245,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3284,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3323,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3362,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3401,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3440,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3479,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3518,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3557,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3596,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3635,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3674,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3713,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3752,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3791,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3830,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3869,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3908,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3947,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3986,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4025,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4064,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4103,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4142,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4181,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4220,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4259,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4298,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4337,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4376,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4415,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4454,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4493,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4532,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4571,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4610,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4649,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4688,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4727,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4766,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4805,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4844,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4883,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4922,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4961,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5000,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5039,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5078,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5117,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5156,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5195,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5234,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5273,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5312,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5351,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5390,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5429,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5468,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5507,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5546,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5585,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5624,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5663,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5702,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5741,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5780,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5819,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5858,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5897,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5936,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5975,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6014,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6053,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6092,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6131,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6170,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6209,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6248,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6287,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6326,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6365,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6404,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6443,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6482,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6521,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6560,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6599,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6638,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6677,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6716,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6755,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6794,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6833,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6872,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6911,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6950,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6989,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7028,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7067,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7106,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7145,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7184,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7223,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7262,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7301,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7340,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7379,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7418,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7457,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7496,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7535,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7574,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7613,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7652,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7691,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7730,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7769,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7808,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7847,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7886,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7925,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7964,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8003,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8042,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8081,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8120,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8159,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8198,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8237,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8276,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8315,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8354,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8393,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8432,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8471,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8510,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8549,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8588,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8627,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8666,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8705,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8744,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8783,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8822,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8861,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8900,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8939,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8978,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9017,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9056,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9095,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9134,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9173,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9212,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9251,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9290,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9329,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9368,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9407,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9446,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9485,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9524,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9563,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9602,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9641,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9680,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9719,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9758,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9797,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9836,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9875,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9914,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9953,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9992,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10031,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10070,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10109,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10148,14 +8638,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10187,14 +8671,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10226,14 +8704,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10265,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10304,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10343,14 +8803,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10382,14 +8836,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10421,14 +8869,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10460,14 +8902,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10499,14 +8935,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10538,14 +8968,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10577,14 +9001,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10616,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10655,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10694,14 +9100,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10733,14 +9133,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10772,14 +9166,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10811,14 +9199,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10850,14 +9232,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10889,14 +9265,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10928,14 +9298,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10964,19 +9328,13 @@
         <v>799193.91910091</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
-        <v>1.015283975659229</v>
+        <v>1</v>
       </c>
       <c r="M271" t="inlineStr"/>
     </row>
@@ -11003,7 +9361,7 @@
         <v>799193.91910091</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -11201,7 +9559,7 @@
         <v>583081.61460091</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11234,7 +9592,7 @@
         <v>583081.61460091</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11267,7 +9625,7 @@
         <v>583081.61460091</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11300,7 +9658,7 @@
         <v>583081.61460091</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11333,7 +9691,7 @@
         <v>563710.94900091</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11366,7 +9724,7 @@
         <v>560689.6005009101</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11399,7 +9757,7 @@
         <v>560689.6005009101</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11432,7 +9790,7 @@
         <v>560689.6005009101</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11465,7 +9823,7 @@
         <v>537423.9792009101</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -15887,7 +14245,7 @@
         <v>-638397.6395309899</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15953,7 +14311,7 @@
         <v>-650776.1055309899</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -18461,10 +16819,14 @@
         <v>-1908851.67763099</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="J498" t="n">
+        <v>49.4</v>
+      </c>
       <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
@@ -18494,11 +16856,19 @@
         <v>-1908609.27963099</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="J499" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18527,11 +16897,19 @@
         <v>-1908561.17153099</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="J500" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18560,11 +16938,19 @@
         <v>-1887684.91613099</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="J501" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18593,11 +16979,19 @@
         <v>-1888685.61663099</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="J502" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18626,11 +17020,19 @@
         <v>-1888685.61663099</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="J503" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18659,11 +17061,19 @@
         <v>-1881303.23883099</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="J504" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18695,8 +17105,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18728,8 +17144,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18761,8 +17183,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18794,8 +17222,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18827,8 +17261,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18860,8 +17300,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18893,8 +17339,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18926,8 +17378,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18959,8 +17417,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18992,8 +17456,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19025,8 +17495,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19058,8 +17534,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19091,8 +17573,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19124,8 +17612,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19157,8 +17651,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19190,8 +17690,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19223,8 +17729,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19256,8 +17768,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19289,8 +17807,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19322,8 +17846,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19355,8 +17885,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19388,8 +17924,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19421,8 +17963,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19454,8 +18002,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19487,8 +18041,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19520,8 +18080,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19553,8 +18119,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19586,8 +18158,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19619,8 +18197,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19652,8 +18236,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19685,8 +18275,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19718,8 +18314,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19751,8 +18353,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19784,8 +18392,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19817,8 +18431,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19850,8 +18470,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19883,8 +18509,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19916,8 +18548,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19949,8 +18587,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19982,8 +18626,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20015,8 +18665,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20048,8 +18704,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20081,8 +18743,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20114,8 +18782,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20147,8 +18821,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20180,8 +18860,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20213,8 +18899,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20246,8 +18938,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20279,8 +18977,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20312,8 +19016,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20345,8 +19055,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20378,8 +19094,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20411,8 +19133,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20444,8 +19172,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20477,8 +19211,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20510,8 +19250,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20543,8 +19289,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20576,8 +19328,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20609,8 +19367,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20642,8 +19406,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20675,8 +19445,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20708,8 +19484,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20741,8 +19523,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20774,8 +19562,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20807,8 +19601,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20840,8 +19640,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20873,8 +19679,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20906,8 +19718,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20939,8 +19757,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20972,8 +19796,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21005,8 +19835,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21038,8 +19874,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21071,8 +19913,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21104,8 +19952,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21137,8 +19991,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21170,8 +20030,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21203,8 +20069,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21236,8 +20108,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21269,8 +20147,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21302,8 +20186,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21335,8 +20225,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21368,8 +20264,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21401,8 +20303,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21434,8 +20342,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21467,8 +20381,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21500,8 +20420,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21533,8 +20459,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21566,8 +20498,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21599,8 +20537,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21632,8 +20576,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21665,8 +20615,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21698,8 +20654,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21731,8 +20693,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21764,8 +20732,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21797,8 +20771,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21830,8 +20810,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21863,8 +20849,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21896,8 +20888,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21929,8 +20927,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21959,11 +20963,17 @@
         <v>-446922.1675250603</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21992,11 +21002,17 @@
         <v>-446922.1675250603</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22025,11 +21041,17 @@
         <v>-446922.1675250603</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22058,11 +21080,17 @@
         <v>-446922.1675250603</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22091,11 +21119,17 @@
         <v>-448560.7587250603</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22124,11 +21158,17 @@
         <v>-437163.3923884303</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22157,11 +21197,17 @@
         <v>-439867.5812884303</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22193,8 +21239,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22226,8 +21278,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22259,8 +21317,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22292,8 +21356,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22325,8 +21395,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22358,8 +21434,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22391,8 +21473,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22424,8 +21512,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22457,8 +21551,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22487,11 +21587,17 @@
         <v>-155754.6460870703</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22523,8 +21629,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22553,11 +21665,17 @@
         <v>-149840.6578870703</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22586,11 +21704,17 @@
         <v>-149840.6578870703</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22622,8 +21746,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22655,8 +21785,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22685,11 +21821,17 @@
         <v>-70829.04958707026</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22718,11 +21860,17 @@
         <v>-142891.8448870702</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22751,13 +21899,19 @@
         <v>-142891.8448870702</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L628" t="n">
-        <v>1</v>
+        <v>1.031437246963563</v>
       </c>
       <c r="M628" t="inlineStr"/>
     </row>
@@ -22784,7 +21938,7 @@
         <v>-72715.83548707025</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22817,7 +21971,7 @@
         <v>-74739.83158707025</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22850,7 +22004,7 @@
         <v>-74739.83158707025</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22883,7 +22037,7 @@
         <v>-384972.1946870703</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22916,7 +22070,7 @@
         <v>-397003.1827870703</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22949,7 +22103,7 @@
         <v>-399985.2827870703</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22982,7 +22136,7 @@
         <v>-399985.2827870703</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23015,7 +22169,7 @@
         <v>-397838.4225870703</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23048,7 +22202,7 @@
         <v>-397838.4225870703</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23081,7 +22235,7 @@
         <v>-397838.4225870703</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23114,7 +22268,7 @@
         <v>-278045.7945870702</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23147,7 +22301,7 @@
         <v>-326145.7945870702</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23180,7 +22334,7 @@
         <v>-316323.4416870702</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23213,7 +22367,7 @@
         <v>-316323.4416870702</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23246,7 +22400,7 @@
         <v>-316323.4416870702</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23279,7 +22433,7 @@
         <v>-316323.4416870702</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23290,6 +22444,6 @@
       <c r="M644" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest ADA.xlsx
+++ b/BackTest/2019-10-30 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1705,7 +1705,7 @@
         <v>13450.21424341998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>13450.21424341998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>13056.20174341998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>14056.20174341998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>14056.20174341998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>14056.20174341998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>14046.20174341998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>34035.20174341998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>49021.57119311998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>49021.57119311998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>49021.57119311998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>33430.42029311998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>538242.5916009101</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>535033.79160091</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>535033.79160091</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>535033.79160091</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>535033.79160091</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>534463.51330091</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>476375.08140091</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>476375.08140091</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>476463.13300091</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>469947.81010091</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -16753,10 +16753,14 @@
         <v>-1912650.15933099</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="J496" t="n">
+        <v>49.1</v>
+      </c>
       <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
@@ -16786,11 +16790,19 @@
         <v>-1907812.78103099</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="J497" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16825,9 +16837,13 @@
         <v>49.4</v>
       </c>
       <c r="J498" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K498" t="inlineStr"/>
+        <v>49.1</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16862,13 +16878,9 @@
         <v>49.3</v>
       </c>
       <c r="J499" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>49.3</v>
+      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16903,7 +16915,7 @@
         <v>49.4</v>
       </c>
       <c r="J500" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -16944,11 +16956,11 @@
         <v>49.5</v>
       </c>
       <c r="J501" t="n">
-        <v>49.4</v>
+        <v>49.3</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L501" t="n">
@@ -16979,19 +16991,11 @@
         <v>-1888685.61663099</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="J502" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17028,11 +17032,7 @@
       <c r="J503" t="n">
         <v>49.4</v>
       </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17071,7 +17071,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L504" t="n">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L505" t="n">
@@ -17144,14 +17144,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17183,14 +17177,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17222,14 +17210,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17261,14 +17243,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17300,14 +17276,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17339,14 +17309,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17378,14 +17342,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17417,14 +17375,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17456,14 +17408,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17495,14 +17441,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17534,14 +17474,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17573,14 +17507,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17612,14 +17540,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17651,14 +17573,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17690,14 +17606,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17729,14 +17639,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17768,14 +17672,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17807,14 +17705,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17846,14 +17738,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17885,14 +17771,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17924,14 +17804,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17963,14 +17837,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18002,14 +17870,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18041,14 +17903,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18080,14 +17936,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18119,14 +17969,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18158,14 +18002,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18197,14 +18035,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18236,14 +18068,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18275,14 +18101,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18314,14 +18134,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18353,14 +18167,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18392,14 +18200,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18431,14 +18233,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18470,14 +18266,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18506,17 +18296,11 @@
         <v>-1043064.52692741</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18545,17 +18329,11 @@
         <v>-1043064.52692741</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18584,17 +18362,11 @@
         <v>-1039189.62662741</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18623,17 +18395,11 @@
         <v>-1039189.62662741</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18662,17 +18428,11 @@
         <v>-1046565.86662741</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18701,17 +18461,11 @@
         <v>-1046565.86662741</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18740,17 +18494,11 @@
         <v>-1046565.86662741</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18779,17 +18527,11 @@
         <v>-1087605.86662741</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18818,17 +18560,11 @@
         <v>-1080853.66542741</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18857,17 +18593,11 @@
         <v>-1128895.42102741</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18899,14 +18629,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18938,14 +18662,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18977,14 +18695,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19016,14 +18728,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19055,14 +18761,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19094,14 +18794,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19133,14 +18827,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19172,14 +18860,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19211,14 +18893,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19250,14 +18926,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19289,14 +18959,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19328,14 +18992,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19367,14 +19025,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19406,14 +19058,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19445,14 +19091,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19484,14 +19124,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19523,14 +19157,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19562,14 +19190,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19601,14 +19223,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19640,14 +19256,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19679,14 +19289,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19718,14 +19322,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19757,14 +19355,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19796,14 +19388,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19835,14 +19421,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19874,14 +19454,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19913,14 +19487,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19952,14 +19520,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19991,14 +19553,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20030,14 +19586,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20069,14 +19619,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20108,14 +19652,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20147,14 +19685,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20186,14 +19718,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20225,14 +19751,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20264,14 +19784,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20303,14 +19817,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20342,14 +19850,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20381,14 +19883,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20420,14 +19916,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20459,14 +19949,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20498,14 +19982,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20537,14 +20015,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20576,14 +20048,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20615,14 +20081,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20654,14 +20114,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20693,14 +20147,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20732,14 +20180,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20771,14 +20213,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20810,14 +20246,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20849,14 +20279,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20888,14 +20312,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20927,14 +20345,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20966,14 +20378,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21005,14 +20411,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21044,14 +20444,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21083,14 +20477,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21122,14 +20510,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21161,14 +20543,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21200,14 +20576,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21239,14 +20609,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21278,14 +20642,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21317,14 +20675,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21356,14 +20708,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21395,14 +20741,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21434,14 +20774,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21473,14 +20807,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21512,14 +20840,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21551,14 +20873,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21590,14 +20906,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21629,14 +20939,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21668,14 +20972,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21707,14 +21005,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21746,14 +21038,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21785,14 +21071,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21824,14 +21104,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21863,14 +21137,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21899,19 +21167,13 @@
         <v>-142891.8448870702</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
-        <v>1.031437246963563</v>
+        <v>1</v>
       </c>
       <c r="M628" t="inlineStr"/>
     </row>
@@ -21938,7 +21200,7 @@
         <v>-72715.83548707025</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21971,7 +21233,7 @@
         <v>-74739.83158707025</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22004,7 +21266,7 @@
         <v>-74739.83158707025</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22037,7 +21299,7 @@
         <v>-384972.1946870703</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22070,7 +21332,7 @@
         <v>-397003.1827870703</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22103,7 +21365,7 @@
         <v>-399985.2827870703</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22136,7 +21398,7 @@
         <v>-399985.2827870703</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22169,7 +21431,7 @@
         <v>-397838.4225870703</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22202,7 +21464,7 @@
         <v>-397838.4225870703</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22235,7 +21497,7 @@
         <v>-397838.4225870703</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22268,7 +21530,7 @@
         <v>-278045.7945870702</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22301,7 +21563,7 @@
         <v>-326145.7945870702</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22334,7 +21596,7 @@
         <v>-316323.4416870702</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22367,7 +21629,7 @@
         <v>-316323.4416870702</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22400,7 +21662,7 @@
         <v>-316323.4416870702</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22433,7 +21695,7 @@
         <v>-316323.4416870702</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22444,6 +21706,6 @@
       <c r="M644" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest ADA.xlsx
+++ b/BackTest/2019-10-30 BackTest ADA.xlsx
@@ -1705,7 +1705,7 @@
         <v>13450.21424341998</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>13450.21424341998</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>13056.20174341998</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>14056.20174341998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>14056.20174341998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>14056.20174341998</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>14046.20174341998</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>34035.20174341998</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>49021.57119311998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>49021.57119311998</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>49021.57119311998</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>33430.42029311998</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>538242.5916009101</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>535033.79160091</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>535033.79160091</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>535033.79160091</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>535033.79160091</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>534463.51330091</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>476375.08140091</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>476375.08140091</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>476463.13300091</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>469947.81010091</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -16753,14 +16753,10 @@
         <v>-1912650.15933099</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="J496" t="n">
-        <v>49.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
@@ -16790,97 +16786,89 @@
         <v>-1907812.78103099</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="J497" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="K497" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
+      <c r="L497" t="n">
+        <v>1</v>
+      </c>
+      <c r="M497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C498" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="D498" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="E498" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="F498" t="n">
+        <v>1038.8966</v>
+      </c>
+      <c r="G498" t="n">
+        <v>-1908851.67763099</v>
+      </c>
+      <c r="H498" t="n">
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="J498" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K498" t="inlineStr"/>
+      <c r="L498" t="n">
+        <v>1</v>
+      </c>
+      <c r="M498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C499" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="D499" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="E499" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="F499" t="n">
+        <v>242.398</v>
+      </c>
+      <c r="G499" t="n">
+        <v>-1908609.27963099</v>
+      </c>
+      <c r="H499" t="n">
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="J499" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K499" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L497" t="n">
-        <v>1</v>
-      </c>
-      <c r="M497" t="inlineStr"/>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
-        <v>496</v>
-      </c>
-      <c r="B498" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="C498" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="D498" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="E498" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="F498" t="n">
-        <v>1038.8966</v>
-      </c>
-      <c r="G498" t="n">
-        <v>-1908851.67763099</v>
-      </c>
-      <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="J498" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L498" t="n">
-        <v>1</v>
-      </c>
-      <c r="M498" t="inlineStr"/>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B499" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="C499" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="D499" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="E499" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="F499" t="n">
-        <v>242.398</v>
-      </c>
-      <c r="G499" t="n">
-        <v>-1908609.27963099</v>
-      </c>
-      <c r="H499" t="n">
-        <v>1</v>
-      </c>
-      <c r="I499" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="J499" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16915,7 +16903,7 @@
         <v>49.4</v>
       </c>
       <c r="J500" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -16956,11 +16944,11 @@
         <v>49.5</v>
       </c>
       <c r="J501" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L501" t="n">
@@ -16991,11 +16979,19 @@
         <v>-1888685.61663099</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="J502" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17032,7 +17028,11 @@
       <c r="J503" t="n">
         <v>49.4</v>
       </c>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17071,7 +17071,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L504" t="n">
@@ -17102,15 +17102,17 @@
         <v>-1881303.23883099</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>49.5</v>
+      </c>
       <c r="J505" t="n">
         <v>49.4</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L505" t="n">
@@ -17141,11 +17143,19 @@
         <v>-1880498.08743099</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="J506" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17174,11 +17184,19 @@
         <v>-1880498.08743099</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="J507" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17207,11 +17225,19 @@
         <v>-1879466.99173099</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="J508" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17243,8 +17269,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17276,8 +17308,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17309,8 +17347,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17342,8 +17386,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17375,8 +17425,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17408,8 +17464,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17441,8 +17503,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17474,8 +17542,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17507,8 +17581,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17540,8 +17620,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17573,8 +17659,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17606,8 +17698,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17639,8 +17737,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17672,8 +17776,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17705,8 +17815,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17738,8 +17854,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17771,8 +17893,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17804,8 +17932,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17837,8 +17971,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17870,8 +18010,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17903,8 +18049,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17936,8 +18088,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17969,8 +18127,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18002,8 +18166,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18035,8 +18205,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18068,8 +18244,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18101,8 +18283,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18134,8 +18322,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18167,8 +18361,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18200,8 +18400,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18233,8 +18439,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18266,8 +18478,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18296,11 +18514,17 @@
         <v>-1043064.52692741</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18329,11 +18553,17 @@
         <v>-1043064.52692741</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18362,11 +18592,17 @@
         <v>-1039189.62662741</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18395,11 +18631,17 @@
         <v>-1039189.62662741</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18428,11 +18670,17 @@
         <v>-1046565.86662741</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18461,11 +18709,17 @@
         <v>-1046565.86662741</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18494,11 +18748,17 @@
         <v>-1046565.86662741</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18527,11 +18787,17 @@
         <v>-1087605.86662741</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18560,11 +18826,17 @@
         <v>-1080853.66542741</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18593,11 +18865,17 @@
         <v>-1128895.42102741</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18629,8 +18907,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18662,8 +18946,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18695,8 +18985,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18728,8 +19024,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18761,8 +19063,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18794,8 +19102,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18827,8 +19141,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18860,8 +19180,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18893,8 +19219,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18926,8 +19258,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18959,8 +19297,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18992,8 +19336,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19025,8 +19375,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19058,8 +19414,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19091,8 +19453,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19124,8 +19492,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19157,8 +19531,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19190,8 +19570,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19223,8 +19609,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19256,8 +19648,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19289,8 +19687,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19322,8 +19726,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19355,8 +19765,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19388,8 +19804,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19421,8 +19843,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19454,8 +19882,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19487,8 +19921,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19520,8 +19960,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19553,8 +19999,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19586,8 +20038,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19619,8 +20077,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19652,8 +20116,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19685,8 +20155,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19718,8 +20194,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19751,8 +20233,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19784,8 +20272,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19817,8 +20311,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19850,8 +20350,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19883,8 +20389,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19916,8 +20428,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19949,8 +20467,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19982,8 +20506,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20015,8 +20545,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20048,8 +20584,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20081,8 +20623,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20114,8 +20662,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20147,8 +20701,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20180,8 +20740,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20213,8 +20779,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20246,8 +20818,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20279,8 +20857,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20312,8 +20896,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20345,8 +20935,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20378,8 +20974,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20411,8 +21013,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20444,8 +21052,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20477,8 +21091,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20510,8 +21130,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20543,8 +21169,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20576,8 +21208,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20609,8 +21247,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20642,8 +21286,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20675,8 +21325,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20708,8 +21364,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20741,8 +21403,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20774,8 +21442,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20807,8 +21481,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20840,8 +21520,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20873,8 +21559,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20903,13 +21595,19 @@
         <v>-155754.6460870703</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L620" t="n">
-        <v>1</v>
+        <v>1.033461538461538</v>
       </c>
       <c r="M620" t="inlineStr"/>
     </row>
@@ -20936,7 +21634,7 @@
         <v>-226417.5705870703</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20969,7 +21667,7 @@
         <v>-149840.6578870703</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21002,7 +21700,7 @@
         <v>-149840.6578870703</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21035,7 +21733,7 @@
         <v>-149840.6578870703</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21068,7 +21766,7 @@
         <v>-149140.6578870703</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21101,7 +21799,7 @@
         <v>-70829.04958707026</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21134,7 +21832,7 @@
         <v>-142891.8448870702</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21167,7 +21865,7 @@
         <v>-142891.8448870702</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21200,7 +21898,7 @@
         <v>-72715.83548707025</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21233,7 +21931,7 @@
         <v>-74739.83158707025</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21266,7 +21964,7 @@
         <v>-74739.83158707025</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21299,7 +21997,7 @@
         <v>-384972.1946870703</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21332,7 +22030,7 @@
         <v>-397003.1827870703</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21563,7 +22261,7 @@
         <v>-326145.7945870702</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21695,7 +22393,7 @@
         <v>-316323.4416870702</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
